--- a/Config/Datas/Bullet.xlsx
+++ b/Config/Datas/Bullet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC763122-1353-4CE2-9A70-210D14AEDB30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,13 +47,25 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,16 +383,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D26"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,8 +402,11 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -400,27 +416,34 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Datas/Bullet.xlsx
+++ b/Config/Datas/Bullet.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC763122-1353-4CE2-9A70-210D14AEDB30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,13 +58,21 @@
   </si>
   <si>
     <t>Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>existTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,16 +390,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="9.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,10 +413,13 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -417,27 +430,33 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
